--- a/Seminars/Seminar6/Ex6-005/Ex6-005.xlsx
+++ b/Seminars/Seminar6/Ex6-005/Ex6-005.xlsx
@@ -377,6 +377,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -413,6 +417,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,10 +429,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -443,10 +447,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -552,9 +552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>177840</xdr:colOff>
+      <xdr:colOff>177480</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -568,7 +568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9331200" y="315360"/>
-          <a:ext cx="8205480" cy="4185360"/>
+          <a:ext cx="8205120" cy="4185000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -684,13 +684,13 @@
       <c r="E4" s="13" t="n">
         <v>3.5</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="H4" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="15" t="n">
         <v>2</v>
       </c>
       <c r="J4" s="11" t="n">
@@ -701,115 +701,115 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16" t="n">
+      <c r="C5" s="18"/>
+      <c r="D5" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="G5" s="9" t="n">
+      <c r="E5" s="19"/>
+      <c r="G5" s="14" t="n">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="15" t="n">
         <v>2</v>
       </c>
       <c r="J5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="19" t="n">
+      <c r="K5" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="21"/>
+      <c r="D6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="15" t="n">
+      <c r="G6" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="23" t="n">
+      <c r="H6" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="17" t="n">
+      <c r="I6" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="23" t="n">
+      <c r="J6" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="18" t="n">
+      <c r="K6" s="19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="D7" s="25" t="n">
+      <c r="B7" s="26"/>
+      <c r="D7" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="26" t="n">
+      <c r="E7" s="27" t="n">
         <v>600</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="28" t="n">
+      <c r="H7" s="29" t="n">
         <f aca="false">SUM(H4:H6)</f>
         <v>4</v>
       </c>
-      <c r="I7" s="28" t="n">
+      <c r="I7" s="29" t="n">
         <f aca="false">SUM(I4:I6)</f>
         <v>4</v>
       </c>
-      <c r="J7" s="28" t="n">
+      <c r="J7" s="29" t="n">
         <f aca="false">SUM(J4:J6)</f>
         <v>2</v>
       </c>
-      <c r="K7" s="28" t="n">
+      <c r="K7" s="29" t="n">
         <f aca="false">SUM(K4:K6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="D8" s="25" t="n">
+      <c r="B8" s="26"/>
+      <c r="D8" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="26" t="n">
+      <c r="E8" s="27" t="n">
         <v>700</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="D9" s="31" t="n">
         <v>3</v>
       </c>
@@ -840,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="34"/>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="14" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="10" t="n">
@@ -865,7 +865,7 @@
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="14" t="n">
         <v>2</v>
       </c>
       <c r="H11" s="11" t="n">
@@ -888,21 +888,21 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="17" t="n">
         <f aca="false">H6/B5</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="I12" s="17" t="n">
+      <c r="I12" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="16" t="n">
+      <c r="J12" s="17" t="n">
         <f aca="false">J6/D5</f>
         <v>0.5</v>
       </c>
-      <c r="K12" s="18" t="n">
+      <c r="K12" s="19" t="n">
         <v>0</v>
       </c>
       <c r="L12" s="35" t="n">
